--- a/Sep19/all_countries/Tables/income-M_%pop.xlsx
+++ b/Sep19/all_countries/Tables/income-M_%pop.xlsx
@@ -489,16 +489,16 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>0.2150956608568527</v>
+        <v>0.2149984677061318</v>
       </c>
       <c r="C2">
-        <v>1007534436142</v>
+        <v>1010352780318</v>
       </c>
       <c r="D2">
-        <v>44453016000000</v>
+        <v>44983624000000</v>
       </c>
       <c r="E2">
-        <v>1072622167.25</v>
+        <v>1096199438.25</v>
       </c>
       <c r="F2">
         <v>14115446032323.57</v>
@@ -507,28 +507,28 @@
         <v>1156444632258.877</v>
       </c>
       <c r="H2">
-        <v>36.01089972702485</v>
+        <v>35.22476871717161</v>
       </c>
       <c r="I2">
-        <v>24.95034699970394</v>
+        <v>24.51834953203766</v>
       </c>
       <c r="J2">
-        <v>40.13281388107322</v>
+        <v>39.21871567126264</v>
       </c>
       <c r="K2">
-        <v>32.70224601064738</v>
+        <v>32.02605754958874</v>
       </c>
       <c r="L2">
-        <v>4.838482146300007</v>
+        <v>4.732856325099733</v>
       </c>
       <c r="M2">
-        <v>3.352368572214822</v>
+        <v>3.294324700764938</v>
       </c>
       <c r="N2">
-        <v>24.19241073149988</v>
+        <v>23.66428162549852</v>
       </c>
       <c r="O2">
-        <v>16.76184286107404</v>
+        <v>16.47162350382462</v>
       </c>
     </row>
     <row r="3" spans="1:15">
